--- a/task 2/Строкин_Сергей_task_2/Строкин Сергей Task_2.xlsx
+++ b/task 2/Строкин_Сергей_task_2/Строкин Сергей Task_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Политех учеба\Инж методы расчета многофазного потока\Дз\course_sppu_2021\task 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Политех учеба\Инж методы расчета многофазного потока\Дз\course_sppu_2021\task 2\Строкин_Сергей_task_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B31B39-2FC2-4761-8419-1BDA4760B2E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFC621A-4ED9-4517-A8FA-A58CD4DC6262}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F10CC82-48F9-48C5-8A78-C029A99B7EE8}"/>
   </bookViews>
@@ -633,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -656,7 +656,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -765,6 +764,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,82 +985,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>260.47235526620869</c:v>
+                  <c:v>244.4999793513314</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>197.93335660135665</c:v>
+                  <c:v>188.23531451365588</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>159.39502483282092</c:v>
+                  <c:v>150.48113367633002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>154.04831418519262</c:v>
+                  <c:v>144.81913163175267</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>168.57357262291998</c:v>
+                  <c:v>158.19670458647667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>187.74109058143083</c:v>
+                  <c:v>177.47685617690274</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>206.41522284661718</c:v>
+                  <c:v>195.93341958765129</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>224.2871702772525</c:v>
+                  <c:v>213.59935778489674</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>241.03595851378284</c:v>
+                  <c:v>230.40734675718824</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>255.19189715503498</c:v>
+                  <c:v>244.64543662573885</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>268.89925991263453</c:v>
+                  <c:v>258.14170989483938</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>282.2227959920055</c:v>
+                  <c:v>271.23767666441285</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>295.22753740914482</c:v>
+                  <c:v>283.99750798802097</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>307.98022891215857</c:v>
+                  <c:v>296.48329533128475</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>320.54589248107629</c:v>
+                  <c:v>308.76136997770249</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>332.97860220150727</c:v>
+                  <c:v>320.88183592472421</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>345.9197729624899</c:v>
+                  <c:v>333.15673655094736</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>359.16205757218893</c:v>
+                  <c:v>346.03201292688851</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>372.50851544270688</c:v>
+                  <c:v>358.99519412514007</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>385.99250946973666</c:v>
+                  <c:v>372.07768002695252</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>399.80571637364005</c:v>
+                  <c:v>385.30558336935786</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>414.77144890750793</c:v>
+                  <c:v>399.37430831817733</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>430.06577192462169</c:v>
+                  <c:v>414.09883144721294</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>445.71634341070381</c:v>
+                  <c:v>429.14708200788948</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>461.74280399922833</c:v>
+                  <c:v>444.54237168461486</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>478.16417000816676</c:v>
+                  <c:v>460.30198660023473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2805,8 +2808,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2825,36 +2828,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="48"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <f>89-6.5*2</f>
         <v>76</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>6</v>
       </c>
       <c r="F2">
@@ -2865,16 +2868,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <v>3108.84</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F3">
@@ -2885,310 +2888,310 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <v>3536</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <v>345</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>0.7</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <v>35</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <v>26</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="26">
         <v>356</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>109</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <v>37</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="26">
         <v>63.1</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <v>26</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <v>17130.8</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <v>461</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="26">
         <v>213.3</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="26">
         <v>20</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="26">
         <v>110</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="26">
         <v>0.2</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="27" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <v>0.5</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="26">
         <v>0.26</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="26">
         <v>1.5329999999999999</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="26">
         <v>0.79400000000000004</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="26">
         <v>1.0089999999999999</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="31">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="32" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3206,38 +3209,38 @@
       <c r="C29" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="41" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54" t="s">
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="49" t="s">
+      <c r="F32" s="54"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="I32" s="57" t="s">
+      <c r="I32" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J32" s="57"/>
-      <c r="K32" s="49" t="s">
+      <c r="J32" s="56"/>
+      <c r="K32" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="L32" s="49"/>
+      <c r="L32" s="48"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="6" t="s">
         <v>67</v>
       </c>
@@ -3256,121 +3259,121 @@
       <c r="G33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="49"/>
+      <c r="H33" s="48"/>
       <c r="I33" s="8" t="s">
         <v>87</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="8">
-        <f>[1]!PVT_rho_oil_kgm3(C7,C17,,,,,C15,C16,C18,C22,,0,C6)</f>
-        <v>830.58643711391699</v>
-      </c>
-      <c r="C34" s="7">
-        <f>[1]!PVT_rho_wat_kgm3(C7,C17,,,,,C15,C16,C18,C22,,0,C6)</f>
-        <v>998.82583356855241</v>
-      </c>
-      <c r="D34" s="8">
-        <f>[1]!PVT_rho_gas_kgm3(C7,C17,,,,,C15,C16,C18,C22,,0,C6)</f>
+      <c r="B34" s="57">
+        <f>[1]!PVT_rho_oil_kgm3(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,0,C6)</f>
+        <v>767.32143294011598</v>
+      </c>
+      <c r="C34" s="58">
+        <f>[1]!PVT_rho_wat_kgm3(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,0,C6)</f>
+        <v>1007.8152660706693</v>
+      </c>
+      <c r="D34" s="57">
+        <f>[1]!PVT_rho_gas_kgm3(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,0,C6)</f>
         <v>27.701866134622559</v>
       </c>
-      <c r="E34" s="8">
-        <f>[1]!PVT_mu_oil_cP(C7,C17,,,,,C15,C16,C18,C22,,0,C6)</f>
-        <v>20.244493606694604</v>
-      </c>
-      <c r="F34" s="8">
-        <f>[1]!PVT_mu_wat_cP(C7,C17,,,,,C15,C16,C18,C22,,0,C6)</f>
-        <v>0.99905847508283185</v>
-      </c>
-      <c r="G34" s="8">
-        <f>[1]!PVT_mu_gas_cP(C7,C17,,,,,C15,C16,C18,C22,,0,C6)</f>
+      <c r="E34" s="57">
+        <f>[1]!PVT_mu_oil_cP(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,0,C6)</f>
+        <v>0.62071723741802987</v>
+      </c>
+      <c r="F34" s="57">
+        <f>[1]!PVT_mu_wat_cP(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,0,C6)</f>
+        <v>1.037644125689057</v>
+      </c>
+      <c r="G34" s="57">
+        <f>[1]!PVT_mu_gas_cP(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,0,C6)</f>
         <v>1.1676727225250471E-2</v>
       </c>
-      <c r="H34" s="8">
-        <f>[1]!PVT_rs_m3m3(C7,C17,,,,,C15,C16,C18,C22,,0,C6)</f>
-        <v>17.016894591664503</v>
-      </c>
-      <c r="I34" s="8">
+      <c r="H34" s="57">
+        <f>[1]!PVT_rs_m3m3(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,0,C6)</f>
+        <v>17.01689459166451</v>
+      </c>
+      <c r="I34" s="57">
         <f>[1]!MF_mu_mix_cP(C12,C13,C7,C17,A36)</f>
-        <v>0.11954926097043922</v>
-      </c>
-      <c r="J34" s="8">
+        <v>8.7793544532556569E-2</v>
+      </c>
+      <c r="J34" s="57">
         <f>[1]!MF_rho_mix_kgm3(C12,C13,C7,C17,A36)</f>
-        <v>117.97531348379999</v>
-      </c>
-      <c r="K34" s="8">
-        <f>[1]!MF_q_mix_rc_m3day(C12,C13,C7,C17)</f>
-        <v>168.36468553458303</v>
-      </c>
-      <c r="L34" s="10"/>
+        <v>113.26500688929897</v>
+      </c>
+      <c r="K34" s="57">
+        <f>[1]!MF_q_mix_rc_m3day(C12,C13,C7,C17,A36)</f>
+        <v>614.0746949361079</v>
+      </c>
+      <c r="L34" s="57"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="8">
-        <f>[1]!PVT_rho_oil_kgm3(C7,C17,,,,,C15,C16,C18,C22,,1,C6)</f>
-        <v>803.19553348647355</v>
-      </c>
-      <c r="C35" s="7">
-        <f>[1]!PVT_rho_wat_kgm3(C7,C17,,,,,C15,C16,C18,C22,,1,C6)</f>
-        <v>998.82583356855241</v>
-      </c>
-      <c r="D35" s="8">
-        <f>[1]!PVT_rho_gas_kgm3(C7,C17,,,,,C15,C16,C18,C22,,1,C6)</f>
+      <c r="B35" s="57">
+        <f>[1]!PVT_rho_oil_kgm3(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,1,C6)</f>
+        <v>743.37942849825743</v>
+      </c>
+      <c r="C35" s="58">
+        <f>[1]!PVT_rho_wat_kgm3(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,1,C6)</f>
+        <v>1007.8152660706693</v>
+      </c>
+      <c r="D35" s="57">
+        <f>[1]!PVT_rho_gas_kgm3(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,1,C6)</f>
         <v>27.701866134622559</v>
       </c>
-      <c r="E35" s="8">
-        <f>[1]!PVT_mu_oil_cP(C7,C17,,,,,C15,C16,C18,C22,,1,C6)</f>
-        <v>6.1619515417647541</v>
-      </c>
-      <c r="F35" s="8">
-        <f>[1]!PVT_mu_wat_cP(C7,C17,,,,,C15,C16,C18,C22,,1,C6)</f>
-        <v>0.99905847508283185</v>
-      </c>
-      <c r="G35" s="8">
-        <f>[1]!PVT_mu_gas_cP(C7,C17,,,,,C15,C16,C18,C22,,1,C6)</f>
+      <c r="E35" s="57">
+        <f>[1]!PVT_mu_oil_cP(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,1,C6)</f>
+        <v>0.40826473323066742</v>
+      </c>
+      <c r="F35" s="57">
+        <f>[1]!PVT_mu_wat_cP(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,1,C6)</f>
+        <v>1.037644125689057</v>
+      </c>
+      <c r="G35" s="57">
+        <f>[1]!PVT_mu_gas_cP(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,1,C6)</f>
         <v>1.1676727225250471E-2</v>
       </c>
-      <c r="H35" s="8">
-        <f>[1]!PVT_rs_m3m3(C7,C17,,,,,C15,C16,C18,C22,,1,C6)</f>
-        <v>26.113619582377652</v>
-      </c>
-      <c r="I35" s="8">
+      <c r="H35" s="57">
+        <f>[1]!PVT_rs_m3m3(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,1,C6)</f>
+        <v>28.154240291509385</v>
+      </c>
+      <c r="I35" s="57">
         <f>[1]!MF_mu_mix_cP(C12,C13,C7,C17,E37)</f>
-        <v>8.329807978914508E-2</v>
-      </c>
-      <c r="J35" s="8">
+        <v>7.3338012319044493E-2</v>
+      </c>
+      <c r="J35" s="57">
         <f>[1]!MF_rho_mix_kgm3(C12,C13,C7,C17,E37)</f>
-        <v>119.96601179941509</v>
-      </c>
-      <c r="K35" s="8">
-        <f>[1]!MF_q_mix_rc_m3day(C12,C13,C7,C17)</f>
-        <v>168.36468553458303</v>
-      </c>
-      <c r="L35" s="8"/>
+        <v>115.72172858006529</v>
+      </c>
+      <c r="K35" s="57">
+        <f>[1]!MF_q_mix_rc_m3day(C12,C13,C7,C17,E37)</f>
+        <v>602.40711536962613</v>
+      </c>
+      <c r="L35" s="57"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f>[1]!PVT_encode_string(,,,,C15,C16,C18,C22,C19,0,C6,,,0)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1,"rsb_m3m3":100,"rp_m3m3":461,"pb_atma":213.3,"t_res_C":110,"bob_m3m3":1.533,"muob_cP":0.2,"PVTcorr":0,"ksep_fr":0.7}</v>
+        <f>[1]!PVT_encode_string(,C23,C24,,C15,C16,C18,C22,C19,0,C6,,,0)</f>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.794,"gamma_wat":1.009,"rsb_m3m3":100,"rp_m3m3":461,"pb_atma":213.3,"t_res_C":110,"bob_m3m3":1.533,"muob_cP":0.2,"PVTcorr":0,"ksep_fr":0.7}</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E37" t="str">
-        <f>[1]!PVT_encode_string(,,,,C15,C16,C18,C22,C19,1,C6,,,0)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1,"rsb_m3m3":100,"rp_m3m3":461,"pb_atma":213.3,"t_res_C":110,"bob_m3m3":1.533,"muob_cP":0.2,"PVTcorr":1,"ksep_fr":0.7}</v>
+        <f>[1]!PVT_encode_string(,C23,C24,,C15,C16,C18,C22,C19,1,C6,,,0)</f>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.794,"gamma_wat":1.009,"rsb_m3m3":100,"rp_m3m3":461,"pb_atma":213.3,"t_res_C":110,"bob_m3m3":1.533,"muob_cP":0.2,"PVTcorr":1,"ksep_fr":0.7}</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3384,7 +3387,7 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f>[1]!MF_p_pipe_atma(C7,C17,C18,C4,B39,C2,C12,C13,0,A36,10,1)</f>
-        <v>152.03689950182931</v>
+        <v>144.37710271234548</v>
       </c>
       <c r="B39">
         <f>ACOS(C5/C4)*180/3.14159265</f>
@@ -3392,78 +3395,78 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="11"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="11"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <f>[1]!MF_p_choke_atma(A42,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
         <v>26</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <f>[1]!MF_p_pipe_atma(B42,$C$17,$C$18,$C$4,$B$39,$C$2,A42,$C$13,0,$A$36,10,1)</f>
-        <v>260.47235526620869</v>
-      </c>
-      <c r="D42" s="20">
+        <v>244.4999793513314</v>
+      </c>
+      <c r="D42" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A42,$C$13,$C$16)</f>
         <v>356</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>20</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="12">
         <f>[1]!MF_p_choke_atma(A43,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>26.770843505859375</v>
-      </c>
-      <c r="C43" s="13">
+        <v>26.738014221191406</v>
+      </c>
+      <c r="C43" s="12">
         <f>[1]!MF_p_pipe_atma(B43,$C$17,$C$18,$C$4,$B$39,$C$2,A43,$C$13,0,$A$36,10,1)</f>
-        <v>197.93335660135665</v>
-      </c>
-      <c r="D43" s="20">
+        <v>188.23531451365588</v>
+      </c>
+      <c r="D43" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A43,$C$13,$C$16)</f>
         <v>284.57142857142856</v>
       </c>
-      <c r="E43" s="11"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
+      <c r="A44" s="11">
         <v>40</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <f>[1]!MF_p_choke_atma(A44,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>29.323394775390625</v>
-      </c>
-      <c r="C44" s="13">
+        <v>29.16986083984375</v>
+      </c>
+      <c r="C44" s="12">
         <f>[1]!MF_p_pipe_atma(B44,$C$17,$C$18,$C$4,$B$39,$C$2,A44,$C$13,0,$A$36,10,1)</f>
-        <v>159.39502483282092</v>
-      </c>
-      <c r="D44" s="20">
+        <v>150.48113367633002</v>
+      </c>
+      <c r="D44" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A44,$C$13,$C$16)</f>
         <v>213.14281904222511</v>
       </c>
@@ -3472,15 +3475,15 @@
       <c r="A45" s="1">
         <v>63</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <f>[1]!MF_p_choke_atma(A45,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>35.62542724609375</v>
-      </c>
-      <c r="C45" s="13">
+        <v>35.11126708984375</v>
+      </c>
+      <c r="C45" s="12">
         <f>[1]!MF_p_pipe_atma(B45,$C$17,$C$18,$C$4,$B$39,$C$2,A45,$C$13,0,$A$36,10,1)</f>
-        <v>154.04831418519262</v>
-      </c>
-      <c r="D45" s="20">
+        <v>144.81913163175267</v>
+      </c>
+      <c r="D45" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A45,$C$13,$C$16)</f>
         <v>113.84303369148769</v>
       </c>
@@ -3489,15 +3492,15 @@
       <c r="A46" s="1">
         <v>80</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="12">
         <f>[1]!MF_p_choke_atma(A46,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>44.19952392578125</v>
-      </c>
-      <c r="C46" s="13">
+        <v>43.18548583984375</v>
+      </c>
+      <c r="C46" s="12">
         <f>[1]!MF_p_pipe_atma(B46,$C$17,$C$18,$C$4,$B$39,$C$2,A46,$C$13,0,$A$36,10,1)</f>
-        <v>168.57357262291998</v>
-      </c>
-      <c r="D46" s="20">
+        <v>158.19670458647667</v>
+      </c>
+      <c r="D46" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A46,$C$13,$C$16)</f>
         <v>0</v>
       </c>
@@ -3506,32 +3509,32 @@
       <c r="A47" s="1">
         <v>100</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <f>[1]!MF_p_choke_atma(A47,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>54.56524658203125</v>
-      </c>
-      <c r="C47" s="13">
+        <v>53.43060302734375</v>
+      </c>
+      <c r="C47" s="12">
         <f>[1]!MF_p_pipe_atma(B47,$C$17,$C$18,$C$4,$B$39,$C$2,A47,$C$13,0,$A$36,10,1)</f>
-        <v>187.74109058143083</v>
-      </c>
-      <c r="D47" s="20">
+        <v>177.47685617690274</v>
+      </c>
+      <c r="D47" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A47,$C$13,$C$16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
+      <c r="A48" s="11">
         <v>120</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <f>[1]!MF_p_choke_atma(A48,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>64.67388916015625</v>
-      </c>
-      <c r="C48" s="13">
+        <v>63.32659912109375</v>
+      </c>
+      <c r="C48" s="12">
         <f>[1]!MF_p_pipe_atma(B48,$C$17,$C$18,$C$4,$B$39,$C$2,A48,$C$13,0,$A$36,10,1)</f>
-        <v>206.41522284661718</v>
-      </c>
-      <c r="D48" s="20">
+        <v>195.93341958765129</v>
+      </c>
+      <c r="D48" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A48,$C$13,$C$16)</f>
         <v>0</v>
       </c>
@@ -3540,15 +3543,15 @@
       <c r="A49" s="1">
         <v>140</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="12">
         <f>[1]!MF_p_choke_atma(A49,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>74.55718994140625</v>
-      </c>
-      <c r="C49" s="13">
+        <v>72.99725341796875</v>
+      </c>
+      <c r="C49" s="12">
         <f>[1]!MF_p_pipe_atma(B49,$C$17,$C$18,$C$4,$B$39,$C$2,A49,$C$13,0,$A$36,10,1)</f>
-        <v>224.2871702772525</v>
-      </c>
-      <c r="D49" s="20">
+        <v>213.59935778489674</v>
+      </c>
+      <c r="D49" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A49,$C$13,$C$16)</f>
         <v>0</v>
       </c>
@@ -3557,15 +3560,15 @@
       <c r="A50" s="1">
         <v>160</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <f>[1]!MF_p_choke_atma(A50,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>84.24688720703125</v>
-      </c>
-      <c r="C50" s="13">
+        <v>82.47271728515625</v>
+      </c>
+      <c r="C50" s="12">
         <f>[1]!MF_p_pipe_atma(B50,$C$17,$C$18,$C$4,$B$39,$C$2,A50,$C$13,0,$A$36,10,1)</f>
-        <v>241.03595851378284</v>
-      </c>
-      <c r="D50" s="20">
+        <v>230.40734675718824</v>
+      </c>
+      <c r="D50" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A50,$C$13,$C$16)</f>
         <v>0</v>
       </c>
@@ -3574,32 +3577,32 @@
       <c r="A51" s="1">
         <v>180</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <f>[1]!MF_p_choke_atma(A51,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>93.78265380859375</v>
-      </c>
-      <c r="C51" s="13">
+        <v>91.78948974609375</v>
+      </c>
+      <c r="C51" s="12">
         <f>[1]!MF_p_pipe_atma(B51,$C$17,$C$18,$C$4,$B$39,$C$2,A51,$C$13,0,$A$36,10,1)</f>
-        <v>255.19189715503498</v>
-      </c>
-      <c r="D51" s="20">
+        <v>244.64543662573885</v>
+      </c>
+      <c r="D51" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A51,$C$13,$C$16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
+      <c r="A52" s="11">
         <v>200</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="12">
         <f>[1]!MF_p_choke_atma(A52,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>103.19781494140625</v>
-      </c>
-      <c r="C52" s="13">
+        <v>100.98089599609375</v>
+      </c>
+      <c r="C52" s="12">
         <f>[1]!MF_p_pipe_atma(B52,$C$17,$C$18,$C$4,$B$39,$C$2,A52,$C$13,0,$A$36,10,1)</f>
-        <v>268.89925991263453</v>
-      </c>
-      <c r="D52" s="20">
+        <v>258.14170989483938</v>
+      </c>
+      <c r="D52" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A52,$C$13,$C$16)</f>
         <v>0</v>
       </c>
@@ -3608,15 +3611,15 @@
       <c r="A53" s="1">
         <v>220</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="12">
         <f>[1]!MF_p_choke_atma(A53,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>112.53045654296875</v>
-      </c>
-      <c r="C53" s="13">
+        <v>110.08026123046875</v>
+      </c>
+      <c r="C53" s="12">
         <f>[1]!MF_p_pipe_atma(B53,$C$17,$C$18,$C$4,$B$39,$C$2,A53,$C$13,0,$A$36,10,1)</f>
-        <v>282.2227959920055</v>
-      </c>
-      <c r="D53" s="20">
+        <v>271.23767666441285</v>
+      </c>
+      <c r="D53" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A53,$C$13,$C$16)</f>
         <v>0</v>
       </c>
@@ -3625,15 +3628,15 @@
       <c r="A54" s="1">
         <v>240</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="12">
         <f>[1]!MF_p_choke_atma(A54,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>121.81072998046875</v>
-      </c>
-      <c r="C54" s="13">
+        <v>119.11773681640625</v>
+      </c>
+      <c r="C54" s="12">
         <f>[1]!MF_p_pipe_atma(B54,$C$17,$C$18,$C$4,$B$39,$C$2,A54,$C$13,0,$A$36,10,1)</f>
-        <v>295.22753740914482</v>
-      </c>
-      <c r="D54" s="20">
+        <v>283.99750798802097</v>
+      </c>
+      <c r="D54" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A54,$C$13,$C$16)</f>
         <v>0</v>
       </c>
@@ -3642,32 +3645,32 @@
       <c r="A55" s="1">
         <v>260</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <f>[1]!MF_p_choke_atma(A55,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>131.06719970703125</v>
-      </c>
-      <c r="C55" s="13">
+        <v>128.11871337890625</v>
+      </c>
+      <c r="C55" s="12">
         <f>[1]!MF_p_pipe_atma(B55,$C$17,$C$18,$C$4,$B$39,$C$2,A55,$C$13,0,$A$36,10,1)</f>
-        <v>307.98022891215857</v>
-      </c>
-      <c r="D55" s="20">
+        <v>296.48329533128475</v>
+      </c>
+      <c r="D55" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A55,$C$13,$C$16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="12">
+      <c r="A56" s="11">
         <v>280</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="12">
         <f>[1]!MF_p_choke_atma(A56,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>140.32684326171875</v>
-      </c>
-      <c r="C56" s="13">
+        <v>137.11175537109375</v>
+      </c>
+      <c r="C56" s="12">
         <f>[1]!MF_p_pipe_atma(B56,$C$17,$C$18,$C$4,$B$39,$C$2,A56,$C$13,0,$A$36,10,1)</f>
-        <v>320.54589248107629</v>
-      </c>
-      <c r="D56" s="20">
+        <v>308.76136997770249</v>
+      </c>
+      <c r="D56" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A56,$C$13,$C$16)</f>
         <v>0</v>
       </c>
@@ -3676,15 +3679,15 @@
       <c r="A57" s="1">
         <v>300</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="12">
         <f>[1]!MF_p_choke_atma(A57,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>149.61029052734375</v>
-      </c>
-      <c r="C57" s="13">
+        <v>146.11431884765625</v>
+      </c>
+      <c r="C57" s="12">
         <f>[1]!MF_p_pipe_atma(B57,$C$17,$C$18,$C$4,$B$39,$C$2,A57,$C$13,0,$A$36,10,1)</f>
-        <v>332.97860220150727</v>
-      </c>
-      <c r="D57" s="20">
+        <v>320.88183592472421</v>
+      </c>
+      <c r="D57" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A57,$C$13,$C$16)</f>
         <v>0</v>
       </c>
@@ -3693,15 +3696,15 @@
       <c r="A58" s="1">
         <v>320</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="12">
         <f>[1]!MF_p_choke_atma(A58,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>159.41424560546875</v>
-      </c>
-      <c r="C58" s="13">
+        <v>155.35650634765625</v>
+      </c>
+      <c r="C58" s="12">
         <f>[1]!MF_p_pipe_atma(B58,$C$17,$C$18,$C$4,$B$39,$C$2,A58,$C$13,0,$A$36,10,1)</f>
-        <v>345.9197729624899</v>
-      </c>
-      <c r="D58" s="20">
+        <v>333.15673655094736</v>
+      </c>
+      <c r="D58" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A58,$C$13,$C$16)</f>
         <v>0</v>
       </c>
@@ -3710,32 +3713,32 @@
       <c r="A59" s="1">
         <v>340</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="12">
         <f>[1]!MF_p_choke_atma(A59,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>169.57525634765625</v>
-      </c>
-      <c r="C59" s="13">
+        <v>165.19219970703125</v>
+      </c>
+      <c r="C59" s="12">
         <f>[1]!MF_p_pipe_atma(B59,$C$17,$C$18,$C$4,$B$39,$C$2,A59,$C$13,0,$A$36,10,1)</f>
-        <v>359.16205757218893</v>
-      </c>
-      <c r="D59" s="20">
+        <v>346.03201292688851</v>
+      </c>
+      <c r="D59" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A59,$C$13,$C$16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
+      <c r="A60" s="11">
         <v>360</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="12">
         <f>[1]!MF_p_choke_atma(A60,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>179.92828369140625</v>
-      </c>
-      <c r="C60" s="13">
+        <v>175.20562744140625</v>
+      </c>
+      <c r="C60" s="12">
         <f>[1]!MF_p_pipe_atma(B60,$C$17,$C$18,$C$4,$B$39,$C$2,A60,$C$13,0,$A$36,10,1)</f>
-        <v>372.50851544270688</v>
-      </c>
-      <c r="D60" s="20">
+        <v>358.99519412514007</v>
+      </c>
+      <c r="D60" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A60,$C$13,$C$16)</f>
         <v>0</v>
       </c>
@@ -3744,15 +3747,15 @@
       <c r="A61" s="1">
         <v>380</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="12">
         <f>[1]!MF_p_choke_atma(A61,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>190.49237060546875</v>
-      </c>
-      <c r="C61" s="13">
+        <v>185.41424560546875</v>
+      </c>
+      <c r="C61" s="12">
         <f>[1]!MF_p_pipe_atma(B61,$C$17,$C$18,$C$4,$B$39,$C$2,A61,$C$13,0,$A$36,10,1)</f>
-        <v>385.99250946973666</v>
-      </c>
-      <c r="D61" s="20">
+        <v>372.07768002695252</v>
+      </c>
+      <c r="D61" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A61,$C$13,$C$16)</f>
         <v>0</v>
       </c>
@@ -3761,15 +3764,15 @@
       <c r="A62" s="1">
         <v>400</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="12">
         <f>[1]!MF_p_choke_atma(A62,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>201.42462158203125</v>
-      </c>
-      <c r="C62" s="13">
+        <v>195.83233642578125</v>
+      </c>
+      <c r="C62" s="12">
         <f>[1]!MF_p_pipe_atma(B62,$C$17,$C$18,$C$4,$B$39,$C$2,A62,$C$13,0,$A$36,10,1)</f>
-        <v>399.80571637364005</v>
-      </c>
-      <c r="D62" s="20">
+        <v>385.30558336935786</v>
+      </c>
+      <c r="D62" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A62,$C$13,$C$16)</f>
         <v>0</v>
       </c>
@@ -3778,32 +3781,32 @@
       <c r="A63" s="1">
         <v>420</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="12">
         <f>[1]!MF_p_choke_atma(A63,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>213.44232177734375</v>
-      </c>
-      <c r="C63" s="13">
+        <v>207.05816650390625</v>
+      </c>
+      <c r="C63" s="12">
         <f>[1]!MF_p_pipe_atma(B63,$C$17,$C$18,$C$4,$B$39,$C$2,A63,$C$13,0,$A$36,10,1)</f>
-        <v>414.77144890750793</v>
-      </c>
-      <c r="D63" s="20">
+        <v>399.37430831817733</v>
+      </c>
+      <c r="D63" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A63,$C$13,$C$16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="12">
+      <c r="A64" s="11">
         <v>440</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="12">
         <f>[1]!MF_p_choke_atma(A64,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>225.83929443359375</v>
-      </c>
-      <c r="C64" s="13">
+        <v>218.94256591796875</v>
+      </c>
+      <c r="C64" s="12">
         <f>[1]!MF_p_pipe_atma(B64,$C$17,$C$18,$C$4,$B$39,$C$2,A64,$C$13,0,$A$36,10,1)</f>
-        <v>430.06577192462169</v>
-      </c>
-      <c r="D64" s="20">
+        <v>414.09883144721294</v>
+      </c>
+      <c r="D64" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A64,$C$13,$C$16)</f>
         <v>0</v>
       </c>
@@ -3812,80 +3815,80 @@
       <c r="A65" s="1">
         <v>460</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="12">
         <f>[1]!MF_p_choke_atma(A65,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>238.63458251953125</v>
-      </c>
-      <c r="C65" s="13">
+        <v>231.19512939453125</v>
+      </c>
+      <c r="C65" s="12">
         <f>[1]!MF_p_pipe_atma(B65,$C$17,$C$18,$C$4,$B$39,$C$2,A65,$C$13,0,$A$36,10,1)</f>
-        <v>445.71634341070381</v>
-      </c>
-      <c r="D65" s="20">
+        <v>429.14708200788948</v>
+      </c>
+      <c r="D65" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A65,$C$13,$C$16)</f>
         <v>0</v>
       </c>
-      <c r="F65" s="47" t="s">
+      <c r="F65" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="G65" s="47"/>
+      <c r="G65" s="46"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>480</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="12">
         <f>[1]!MF_p_choke_atma(A66,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>251.84088134765625</v>
-      </c>
-      <c r="C66" s="13">
+        <v>243.83172607421875</v>
+      </c>
+      <c r="C66" s="12">
         <f>[1]!MF_p_pipe_atma(B66,$C$17,$C$18,$C$4,$B$39,$C$2,A66,$C$13,0,$A$36,10,1)</f>
-        <v>461.74280399922833</v>
-      </c>
-      <c r="D66" s="20">
+        <v>444.54237168461486</v>
+      </c>
+      <c r="D66" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A66,$C$13,$C$16)</f>
         <v>0</v>
       </c>
-      <c r="F66" s="40" t="s">
+      <c r="F66" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="G66" s="41">
+      <c r="G66" s="40">
         <f>[1]!crv_intersection(A42:A67,C42:C67,A42:A67,D42:D67)</f>
-        <v>53.157624385606056</v>
+        <v>55.39142333926624</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>500</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="12">
         <f>[1]!MF_p_choke_atma(A67,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>265.47088623046875</v>
-      </c>
-      <c r="C67" s="13">
+        <v>256.86346435546875</v>
+      </c>
+      <c r="C67" s="12">
         <f>[1]!MF_p_pipe_atma(B67,$C$17,$C$18,$C$4,$B$39,$C$2,A67,$C$13,0,$A$36,10,1)</f>
-        <v>478.16417000816676</v>
-      </c>
-      <c r="D67" s="20">
+        <v>460.30198660023473</v>
+      </c>
+      <c r="D67" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A67,$C$13,$C$16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
-      <c r="B69" s="39"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="38"/>
+      <c r="B70" s="37"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="array" ref="A71:M96">[1]!MF_p_pipe_atma($C$7,$C$17,$C$18,$C$4,$B$39,$C$2,$C$12,$C$13,0,$A$36,10,1)</f>
-        <v>152.03689950182931</v>
-      </c>
-      <c r="B71" s="17">
+        <v>144.37710271234548</v>
+      </c>
+      <c r="B71" s="16">
         <v>110</v>
       </c>
       <c r="C71" s="3">
@@ -3895,7 +3898,7 @@
         <v>20</v>
       </c>
       <c r="E71">
-        <v>152.03689950182931</v>
+        <v>144.37710271234548</v>
       </c>
       <c r="F71">
         <v>110</v>
@@ -3923,10 +3926,10 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="16" t="str">
+      <c r="A72" s="15" t="str">
         <v>p_result_atma</v>
       </c>
-      <c r="B72" s="17" t="str">
+      <c r="B72" s="16" t="str">
         <v>t_result_C</v>
       </c>
       <c r="C72" s="3" t="str">
@@ -3964,10 +3967,10 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="str">
+      <c r="A73" s="17" t="str">
         <v>num</v>
       </c>
-      <c r="B73" s="17" t="str">
+      <c r="B73" s="16" t="str">
         <v>h,m</v>
       </c>
       <c r="C73" s="3" t="str">
@@ -3982,7 +3985,7 @@
       <c r="F73" t="str">
         <v>Hl</v>
       </c>
-      <c r="G73" s="44" t="str">
+      <c r="G73" s="43" t="str">
         <v>fpat</v>
       </c>
       <c r="H73" t="str">
@@ -4005,10 +4008,10 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="16">
+      <c r="A74" s="15">
         <v>1</v>
       </c>
-      <c r="B74" s="17">
+      <c r="B74" s="16">
         <v>0</v>
       </c>
       <c r="C74" s="3">
@@ -4021,9 +4024,9 @@
         <v>20</v>
       </c>
       <c r="F74">
-        <v>0.27131046645768675</v>
-      </c>
-      <c r="G74" s="44">
+        <v>0.27128976735129695</v>
+      </c>
+      <c r="G74" s="43">
         <v>103</v>
       </c>
       <c r="H74">
@@ -4046,25 +4049,25 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="16">
+      <c r="A75" s="15">
         <v>2</v>
       </c>
-      <c r="B75" s="45">
+      <c r="B75" s="44">
         <v>186.10526315789474</v>
       </c>
       <c r="C75" s="3">
         <v>185.21733138428738</v>
       </c>
       <c r="D75">
-        <v>38.750161559515284</v>
+        <v>38.571950285202284</v>
       </c>
       <c r="E75">
         <v>24.736842105263158</v>
       </c>
       <c r="F75">
-        <v>0.28516993435176696</v>
-      </c>
-      <c r="G75" s="44">
+        <v>0.28435912971624966</v>
+      </c>
+      <c r="G75" s="43">
         <v>103</v>
       </c>
       <c r="H75">
@@ -4087,25 +4090,25 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="16">
+      <c r="A76" s="15">
         <v>3</v>
       </c>
-      <c r="B76" s="45">
+      <c r="B76" s="44">
         <v>372.21052631578948</v>
       </c>
       <c r="C76" s="3">
         <v>370.43466276857475</v>
       </c>
       <c r="D76">
-        <v>42.736643716566718</v>
+        <v>42.357364306603834</v>
       </c>
       <c r="E76">
         <v>29.473684210526315</v>
       </c>
       <c r="F76">
-        <v>0.2993513564611448</v>
-      </c>
-      <c r="G76" s="44">
+        <v>0.29770156321179447</v>
+      </c>
+      <c r="G76" s="43">
         <v>103</v>
       </c>
       <c r="H76">
@@ -4128,25 +4131,25 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="18">
+      <c r="A77" s="17">
         <v>4</v>
       </c>
-      <c r="B77" s="45">
+      <c r="B77" s="44">
         <v>558.31578947368416</v>
       </c>
       <c r="C77" s="3">
         <v>555.65199415286202</v>
       </c>
       <c r="D77">
-        <v>46.960740789240305</v>
+        <v>46.356998217803657</v>
       </c>
       <c r="E77">
         <v>34.210526315789473</v>
       </c>
       <c r="F77">
-        <v>0.31378929196779881</v>
-      </c>
-      <c r="G77" s="44">
+        <v>0.31126001698627409</v>
+      </c>
+      <c r="G77" s="43">
         <v>103</v>
       </c>
       <c r="H77">
@@ -4169,25 +4172,25 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="16">
+      <c r="A78" s="15">
         <v>5</v>
       </c>
-      <c r="B78" s="45">
+      <c r="B78" s="44">
         <v>744.42105263157896</v>
       </c>
       <c r="C78" s="3">
         <v>740.86932553714951</v>
       </c>
       <c r="D78">
-        <v>51.42201503035956</v>
+        <v>50.570253879483175</v>
       </c>
       <c r="E78">
         <v>38.94736842105263</v>
       </c>
       <c r="F78">
-        <v>0.32841142349253299</v>
-      </c>
-      <c r="G78" s="44">
+        <v>0.32497253109876151</v>
+      </c>
+      <c r="G78" s="43">
         <v>103</v>
       </c>
       <c r="H78">
@@ -4210,25 +4213,25 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="16">
+      <c r="A79" s="15">
         <v>6</v>
       </c>
-      <c r="B79" s="45">
+      <c r="B79" s="44">
         <v>930.52631578947376</v>
       </c>
       <c r="C79" s="3">
         <v>926.08665692143688</v>
       </c>
       <c r="D79">
-        <v>56.118347787252951</v>
+        <v>54.995203616674395</v>
       </c>
       <c r="E79">
         <v>43.684210526315788</v>
       </c>
       <c r="F79">
-        <v>0.34314069634446781</v>
-      </c>
-      <c r="G79" s="44">
+        <v>0.33877379766952026</v>
+      </c>
+      <c r="G79" s="43">
         <v>103</v>
       </c>
       <c r="H79">
@@ -4251,25 +4254,25 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="16">
+      <c r="A80" s="15">
         <v>7</v>
       </c>
-      <c r="B80" s="45">
+      <c r="B80" s="44">
         <v>1116.6315789473683</v>
       </c>
       <c r="C80" s="3">
         <v>1111.303988305724</v>
       </c>
       <c r="D80">
-        <v>61.046006252020398</v>
+        <v>59.628635841869333</v>
       </c>
       <c r="E80">
         <v>48.421052631578945</v>
       </c>
       <c r="F80">
-        <v>0.35789764548838071</v>
-      </c>
-      <c r="G80" s="44">
+        <v>0.35259688618294266</v>
+      </c>
+      <c r="G80" s="43">
         <v>103</v>
       </c>
       <c r="H80">
@@ -4292,25 +4295,25 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="18">
+      <c r="A81" s="17">
         <v>8</v>
       </c>
-      <c r="B81" s="45">
+      <c r="B81" s="44">
         <v>1302.7368421052631</v>
       </c>
       <c r="C81" s="3">
         <v>1296.5213196900115</v>
       </c>
       <c r="D81">
-        <v>66.199739345901946</v>
+        <v>64.466125778658267</v>
       </c>
       <c r="E81">
         <v>53.157894736842103</v>
       </c>
       <c r="F81">
-        <v>0.37260284747690164</v>
-      </c>
-      <c r="G81" s="44">
+        <v>0.36637506340007936</v>
+      </c>
+      <c r="G81" s="43">
         <v>103</v>
       </c>
       <c r="H81">
@@ -4333,25 +4336,25 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="16">
+      <c r="A82" s="15">
         <v>9</v>
       </c>
-      <c r="B82" s="45">
+      <c r="B82" s="44">
         <v>1488.8421052631579</v>
       </c>
       <c r="C82" s="3">
         <v>1481.7386510742988</v>
       </c>
       <c r="D82">
-        <v>71.57973043567732</v>
+        <v>69.5083259439496</v>
       </c>
       <c r="E82">
         <v>57.89473684210526</v>
       </c>
       <c r="F82">
-        <v>0.38717259998346365</v>
-      </c>
-      <c r="G82" s="44">
+        <v>0.3800378609365514</v>
+      </c>
+      <c r="G82" s="43">
         <v>103</v>
       </c>
       <c r="H82">
@@ -4374,25 +4377,25 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="16">
+      <c r="A83" s="15">
         <v>10</v>
       </c>
-      <c r="B83" s="45">
+      <c r="B83" s="44">
         <v>1674.9473684210527</v>
       </c>
       <c r="C83" s="3">
         <v>1666.9559824585863</v>
       </c>
       <c r="D83">
-        <v>77.257505863360535</v>
+        <v>74.743427443594854</v>
       </c>
       <c r="E83">
         <v>62.631578947368418</v>
       </c>
       <c r="F83">
-        <v>0.4518561128411766</v>
-      </c>
-      <c r="G83" s="44">
+        <v>0.39352428151818503</v>
+      </c>
+      <c r="G83" s="43">
         <v>103</v>
       </c>
       <c r="H83">
@@ -4415,25 +4418,25 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="16">
+      <c r="A84" s="15">
         <v>11</v>
       </c>
-      <c r="B84" s="45">
+      <c r="B84" s="44">
         <v>1861.0526315789475</v>
       </c>
       <c r="C84" s="3">
         <v>1852.1733138428738</v>
       </c>
       <c r="D84">
-        <v>83.889295921445054</v>
+        <v>80.527329815056646</v>
       </c>
       <c r="E84">
         <v>67.368421052631575</v>
       </c>
       <c r="F84">
-        <v>0.48429861754402664</v>
-      </c>
-      <c r="G84" s="44">
+        <v>0.47477856480390351</v>
+      </c>
+      <c r="G84" s="43">
         <v>103</v>
       </c>
       <c r="H84">
@@ -4456,25 +4459,25 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="18">
+      <c r="A85" s="17">
         <v>12</v>
       </c>
-      <c r="B85" s="45">
+      <c r="B85" s="44">
         <v>2047.1578947368421</v>
       </c>
       <c r="C85" s="3">
         <v>2037.3906452271608</v>
       </c>
       <c r="D85">
-        <v>90.828419967190953</v>
+        <v>87.016684515699566</v>
       </c>
       <c r="E85">
         <v>72.10526315789474</v>
       </c>
       <c r="F85">
-        <v>0.4995653788035983</v>
-      </c>
-      <c r="G85" s="44">
+        <v>0.48933763463828489</v>
+      </c>
+      <c r="G85" s="43">
         <v>103</v>
       </c>
       <c r="H85">
@@ -4497,25 +4500,25 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="16">
+      <c r="A86" s="15">
         <v>13</v>
       </c>
-      <c r="B86" s="45">
+      <c r="B86" s="44">
         <v>2233.2631578947367</v>
       </c>
       <c r="C86" s="3">
         <v>2222.6079766114481</v>
       </c>
       <c r="D86">
-        <v>97.962918847349812</v>
+        <v>93.689545274793758</v>
       </c>
       <c r="E86">
         <v>76.84210526315789</v>
       </c>
       <c r="F86">
-        <v>0.51416608277889342</v>
-      </c>
-      <c r="G86" s="44">
+        <v>0.50331330863362089</v>
+      </c>
+      <c r="G86" s="43">
         <v>103</v>
       </c>
       <c r="H86">
@@ -4538,25 +4541,25 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="16">
+      <c r="A87" s="15">
         <v>14</v>
       </c>
-      <c r="B87" s="45">
+      <c r="B87" s="44">
         <v>2419.3684210526317</v>
       </c>
       <c r="C87" s="3">
         <v>2407.8253079957358</v>
       </c>
       <c r="D87">
-        <v>105.27575332514319</v>
+        <v>100.53129621849205</v>
       </c>
       <c r="E87">
         <v>81.578947368421055</v>
       </c>
       <c r="F87">
-        <v>0.52807459719403516</v>
-      </c>
-      <c r="G87" s="44">
+        <v>0.51667796630432572</v>
+      </c>
+      <c r="G87" s="43">
         <v>103</v>
       </c>
       <c r="H87">
@@ -4579,25 +4582,25 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="16">
+      <c r="A88" s="15">
         <v>15</v>
       </c>
-      <c r="B88" s="45">
+      <c r="B88" s="44">
         <v>2605.4736842105262</v>
       </c>
       <c r="C88" s="3">
         <v>2593.042639380023</v>
       </c>
       <c r="D88">
-        <v>112.75034744618998</v>
+        <v>107.52759581469624</v>
       </c>
       <c r="E88">
         <v>86.315789473684205</v>
       </c>
       <c r="F88">
-        <v>0.54128048925683492</v>
-      </c>
-      <c r="G88" s="44">
+        <v>0.52941727940726635</v>
+      </c>
+      <c r="G88" s="43">
         <v>103</v>
       </c>
       <c r="H88">
@@ -4620,25 +4623,25 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="18">
+      <c r="A89" s="17">
         <v>16</v>
       </c>
-      <c r="B89" s="45">
+      <c r="B89" s="44">
         <v>2791.5789473684213</v>
       </c>
       <c r="C89" s="3">
         <v>2778.2599707643108</v>
       </c>
       <c r="D89">
-        <v>120.37397886332515</v>
+        <v>114.66765623446314</v>
       </c>
       <c r="E89">
         <v>91.05263157894737</v>
       </c>
       <c r="F89">
-        <v>0.55376973859338618</v>
-      </c>
-      <c r="G89" s="44">
+        <v>0.54151323171652621</v>
+      </c>
+      <c r="G89" s="43">
         <v>103</v>
       </c>
       <c r="H89">
@@ -4661,25 +4664,25 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="16">
+      <c r="A90" s="15">
         <v>17</v>
       </c>
-      <c r="B90" s="45">
+      <c r="B90" s="44">
         <v>2977.6842105263158</v>
       </c>
       <c r="C90" s="3">
         <v>2963.4773021485976</v>
       </c>
       <c r="D90">
-        <v>128.12952700032903</v>
+        <v>121.93626948114532</v>
       </c>
       <c r="E90">
         <v>95.78947368421052</v>
       </c>
       <c r="F90">
-        <v>0.56556296357615043</v>
-      </c>
-      <c r="G90" s="44">
+        <v>0.55297882995255665</v>
+      </c>
+      <c r="G90" s="43">
         <v>103</v>
       </c>
       <c r="H90">
@@ -4702,25 +4705,25 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="16">
+      <c r="A91" s="15">
         <v>18</v>
       </c>
-      <c r="B91" s="45">
+      <c r="B91" s="44">
         <v>3163.7894736842104</v>
       </c>
       <c r="C91" s="3">
         <v>3148.6946335328853</v>
       </c>
       <c r="D91">
-        <v>136.0007462146653</v>
+        <v>129.31878257159894</v>
       </c>
       <c r="E91">
         <v>100.52631578947368</v>
       </c>
       <c r="F91">
-        <v>0.57669308754289894</v>
-      </c>
-      <c r="G91" s="44">
+        <v>0.56383888429721873</v>
+      </c>
+      <c r="G91" s="43">
         <v>103</v>
       </c>
       <c r="H91">
@@ -4743,25 +4746,25 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="16">
+      <c r="A92" s="15">
         <v>19</v>
       </c>
-      <c r="B92" s="45">
+      <c r="B92" s="44">
         <v>3349.8947368421054</v>
       </c>
       <c r="C92" s="3">
         <v>3333.9119649171726</v>
       </c>
       <c r="D92">
-        <v>143.97471930106863</v>
+        <v>136.80356597972343</v>
       </c>
       <c r="E92">
         <v>105.26315789473685</v>
       </c>
       <c r="F92">
-        <v>0.58718697734988612</v>
-      </c>
-      <c r="G92" s="44">
+        <v>0.57411337672051099</v>
+      </c>
+      <c r="G92" s="43">
         <v>103</v>
       </c>
       <c r="H92">
@@ -4784,25 +4787,25 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="18">
+      <c r="A93" s="17">
         <v>20</v>
       </c>
-      <c r="B93" s="45">
+      <c r="B93" s="44">
         <v>3536</v>
       </c>
       <c r="C93" s="3">
         <v>3519.1292963014598</v>
       </c>
       <c r="D93">
-        <v>152.03689950182931</v>
+        <v>144.37710271234548</v>
       </c>
       <c r="E93">
         <v>110</v>
       </c>
       <c r="F93">
-        <v>0.59709382931220856</v>
-      </c>
-      <c r="G93" s="44">
+        <v>0.58384372332889323</v>
+      </c>
+      <c r="G93" s="43">
         <v>103</v>
       </c>
       <c r="H93">
@@ -4825,10 +4828,10 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B94" s="17" t="e">
+      <c r="A94" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B94" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="C94" s="3" t="e">
@@ -4866,10 +4869,10 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B95" s="17" t="e">
+      <c r="A95" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B95" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="C95" s="3" t="e">
@@ -4907,10 +4910,10 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B96" s="17" t="e">
+      <c r="A96" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B96" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="C96" s="3" t="e">

--- a/task 2/Строкин_Сергей_task_2/Строкин Сергей Task_2.xlsx
+++ b/task 2/Строкин_Сергей_task_2/Строкин Сергей Task_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Политех учеба\Инж методы расчета многофазного потока\Дз\course_sppu_2021\task 2\Строкин_Сергей_task_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFC621A-4ED9-4517-A8FA-A58CD4DC6262}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CD40DA-D202-4253-B882-50C6A6B28E06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F10CC82-48F9-48C5-8A78-C029A99B7EE8}"/>
+    <workbookView xWindow="-7665" yWindow="2730" windowWidth="15375" windowHeight="7875" xr2:uid="{2F10CC82-48F9-48C5-8A78-C029A99B7EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -387,6 +387,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -633,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -729,6 +732,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -765,10 +772,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -985,82 +989,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>244.4999793513314</c:v>
+                  <c:v>244.76848212495682</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>188.23531451365588</c:v>
+                  <c:v>207.45667671765059</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150.48113367633002</c:v>
+                  <c:v>174.68650945922255</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144.81913163175267</c:v>
+                  <c:v>167.33768886099912</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>158.19670458647667</c:v>
+                  <c:v>177.61807213275321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>177.47685617690274</c:v>
+                  <c:v>196.01030040148612</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>195.93341958765129</c:v>
+                  <c:v>213.12538215884305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>213.59935778489674</c:v>
+                  <c:v>228.76104088309035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>230.40734675718824</c:v>
+                  <c:v>242.4724790290573</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>244.64543662573885</c:v>
+                  <c:v>255.7326352135637</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>258.14170989483938</c:v>
+                  <c:v>268.55970806533395</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>271.23767666441285</c:v>
+                  <c:v>281.00658912250776</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>283.99750798802097</c:v>
+                  <c:v>293.13306600290207</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>296.48329533128475</c:v>
+                  <c:v>305.00050370162751</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>308.76136997770249</c:v>
+                  <c:v>316.66490595088811</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>320.88183592472421</c:v>
+                  <c:v>328.17727834352991</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>333.15673655094736</c:v>
+                  <c:v>339.58123174507006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>346.03201292688851</c:v>
+                  <c:v>351.60615361324881</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>358.99519412514007</c:v>
+                  <c:v>363.85833276342737</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>372.07768002695252</c:v>
+                  <c:v>376.21339768700642</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>385.30558336935786</c:v>
+                  <c:v>388.6965694462549</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>399.37430831817733</c:v>
+                  <c:v>401.32817970014355</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>414.09883144721294</c:v>
+                  <c:v>415.09718967000384</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>429.14708200788948</c:v>
+                  <c:v>429.52717023100593</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>444.54237168461486</c:v>
+                  <c:v>444.29977812344134</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>460.30198660023473</c:v>
+                  <c:v>459.43533503427852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2196,13 +2200,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>271528</xdr:colOff>
+      <xdr:colOff>233428</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>271528</xdr:colOff>
+      <xdr:colOff>233428</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
@@ -2219,8 +2223,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7342009" y="8518195"/>
-          <a:ext cx="0" cy="2555372"/>
+          <a:off x="7300978" y="8510868"/>
+          <a:ext cx="0" cy="2558303"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2808,8 +2812,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:L35"/>
+    <sheetView tabSelected="1" topLeftCell="D76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74:G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2841,10 +2845,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="47"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -3049,7 +3053,8 @@
         <v>38</v>
       </c>
       <c r="C15" s="26">
-        <v>461</v>
+        <f>461*C23</f>
+        <v>366.03399999999999</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>39</v>
@@ -3214,33 +3219,33 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="53" t="s">
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="54"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="48" t="s">
+      <c r="F32" s="56"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="I32" s="56" t="s">
+      <c r="I32" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="J32" s="56"/>
-      <c r="K32" s="48" t="s">
+      <c r="J32" s="58"/>
+      <c r="K32" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="L32" s="48"/>
+      <c r="L32" s="50"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="6" t="s">
         <v>67</v>
       </c>
@@ -3259,112 +3264,112 @@
       <c r="G33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="48"/>
+      <c r="H33" s="50"/>
       <c r="I33" s="8" t="s">
         <v>87</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="57">
+      <c r="B34" s="45">
         <f>[1]!PVT_rho_oil_kgm3(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,0,C6)</f>
         <v>767.32143294011598</v>
       </c>
-      <c r="C34" s="58">
+      <c r="C34" s="46">
         <f>[1]!PVT_rho_wat_kgm3(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,0,C6)</f>
         <v>1007.8152660706693</v>
       </c>
-      <c r="D34" s="57">
+      <c r="D34" s="45">
         <f>[1]!PVT_rho_gas_kgm3(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,0,C6)</f>
         <v>27.701866134622559</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="59">
         <f>[1]!PVT_mu_oil_cP(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,0,C6)</f>
         <v>0.62071723741802987</v>
       </c>
-      <c r="F34" s="57">
+      <c r="F34" s="59">
         <f>[1]!PVT_mu_wat_cP(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,0,C6)</f>
         <v>1.037644125689057</v>
       </c>
-      <c r="G34" s="57">
+      <c r="G34" s="59">
         <f>[1]!PVT_mu_gas_cP(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,0,C6)</f>
         <v>1.1676727225250471E-2</v>
       </c>
-      <c r="H34" s="57">
+      <c r="H34" s="45">
         <f>[1]!PVT_rs_m3m3(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,0,C6)</f>
         <v>17.01689459166451</v>
       </c>
-      <c r="I34" s="57">
-        <f>[1]!MF_mu_mix_cP(C12,C13,C7,C17,A36)</f>
-        <v>8.7793544532556569E-2</v>
-      </c>
-      <c r="J34" s="57">
-        <f>[1]!MF_rho_mix_kgm3(C12,C13,C7,C17,A36)</f>
-        <v>113.26500688929897</v>
-      </c>
-      <c r="K34" s="57">
-        <f>[1]!MF_q_mix_rc_m3day(C12,C13,C7,C17,A36)</f>
-        <v>614.0746949361079</v>
-      </c>
-      <c r="L34" s="57"/>
+      <c r="I34" s="59">
+        <f>[1]!MF_mu_mix_cP(C12,C13,C7,C17,E36)</f>
+        <v>0.10577354803578118</v>
+      </c>
+      <c r="J34" s="45">
+        <f>[1]!MF_rho_mix_kgm3(C12,C13,C7,C17,E36)</f>
+        <v>133.47638231117054</v>
+      </c>
+      <c r="K34" s="45">
+        <f>[1]!MF_q_mix_rc_m3day(C12,C13,C7,C17,E36)</f>
+        <v>496.73741328209093</v>
+      </c>
+      <c r="L34" s="45"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="57">
+      <c r="B35" s="45">
         <f>[1]!PVT_rho_oil_kgm3(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,1,C6)</f>
         <v>743.37942849825743</v>
       </c>
-      <c r="C35" s="58">
+      <c r="C35" s="46">
         <f>[1]!PVT_rho_wat_kgm3(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,1,C6)</f>
         <v>1007.8152660706693</v>
       </c>
-      <c r="D35" s="57">
+      <c r="D35" s="45">
         <f>[1]!PVT_rho_gas_kgm3(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,1,C6)</f>
         <v>27.701866134622559</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E35" s="59">
         <f>[1]!PVT_mu_oil_cP(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,1,C6)</f>
         <v>0.40826473323066742</v>
       </c>
-      <c r="F35" s="57">
+      <c r="F35" s="59">
         <f>[1]!PVT_mu_wat_cP(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,1,C6)</f>
         <v>1.037644125689057</v>
       </c>
-      <c r="G35" s="57">
+      <c r="G35" s="59">
         <f>[1]!PVT_mu_gas_cP(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,1,C6)</f>
         <v>1.1676727225250471E-2</v>
       </c>
-      <c r="H35" s="57">
+      <c r="H35" s="45">
         <f>[1]!PVT_rs_m3m3(C7,C17,,C23,C24,,C15,C16,C18,C22,C19,1,C6)</f>
         <v>28.154240291509385</v>
       </c>
-      <c r="I35" s="57">
+      <c r="I35" s="59">
         <f>[1]!MF_mu_mix_cP(C12,C13,C7,C17,E37)</f>
-        <v>7.3338012319044493E-2</v>
-      </c>
-      <c r="J35" s="57">
+        <v>8.8253735939246028E-2</v>
+      </c>
+      <c r="J35" s="45">
         <f>[1]!MF_rho_mix_kgm3(C12,C13,C7,C17,E37)</f>
-        <v>115.72172858006529</v>
-      </c>
-      <c r="K35" s="57">
+        <v>137.01353168354171</v>
+      </c>
+      <c r="K35" s="45">
         <f>[1]!MF_q_mix_rc_m3day(C12,C13,C7,C17,E37)</f>
-        <v>602.40711536962613</v>
-      </c>
-      <c r="L35" s="57"/>
+        <v>485.06983371560926</v>
+      </c>
+      <c r="L35" s="45"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
+      <c r="E36" t="str">
         <f>[1]!PVT_encode_string(,C23,C24,,C15,C16,C18,C22,C19,0,C6,,,0)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.794,"gamma_wat":1.009,"rsb_m3m3":100,"rp_m3m3":461,"pb_atma":213.3,"t_res_C":110,"bob_m3m3":1.533,"muob_cP":0.2,"PVTcorr":0,"ksep_fr":0.7}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.794,"gamma_wat":1.009,"rsb_m3m3":100,"rp_m3m3":366.034,"pb_atma":213.3,"t_res_C":110,"bob_m3m3":1.533,"muob_cP":0.2,"PVTcorr":0,"ksep_fr":0.7}</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -3373,7 +3378,7 @@
       </c>
       <c r="E37" t="str">
         <f>[1]!PVT_encode_string(,C23,C24,,C15,C16,C18,C22,C19,1,C6,,,0)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.794,"gamma_wat":1.009,"rsb_m3m3":100,"rp_m3m3":461,"pb_atma":213.3,"t_res_C":110,"bob_m3m3":1.533,"muob_cP":0.2,"PVTcorr":1,"ksep_fr":0.7}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.794,"gamma_wat":1.009,"rsb_m3m3":100,"rp_m3m3":366.034,"pb_atma":213.3,"t_res_C":110,"bob_m3m3":1.533,"muob_cP":0.2,"PVTcorr":1,"ksep_fr":0.7}</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3386,8 +3391,8 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <f>[1]!MF_p_pipe_atma(C7,C17,C18,C4,B39,C2,C12,C13,0,A36,10,1)</f>
-        <v>144.37710271234548</v>
+        <f>[1]!MF_p_pipe_atma(C7,C17,C18,C4,B39,C2,C12,C13,0,E36,10,1)</f>
+        <v>169.37190246458792</v>
       </c>
       <c r="B39">
         <f>ACOS(C5/C4)*180/3.14159265</f>
@@ -3395,12 +3400,12 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3423,12 +3428,12 @@
         <v>0</v>
       </c>
       <c r="B42" s="12">
-        <f>[1]!MF_p_choke_atma(A42,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
+        <f>[1]!MF_p_choke_atma(A42,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
         <v>26</v>
       </c>
       <c r="C42" s="12">
-        <f>[1]!MF_p_pipe_atma(B42,$C$17,$C$18,$C$4,$B$39,$C$2,A42,$C$13,0,$A$36,10,1)</f>
-        <v>244.4999793513314</v>
+        <f>[1]!MF_p_pipe_atma(B42,$C$17,$C$18,$C$4,$B$39,$C$2,A42,$C$13,0,$E$36,10,1)</f>
+        <v>244.76848212495682</v>
       </c>
       <c r="D42" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A42,$C$13,$C$16)</f>
@@ -3441,12 +3446,12 @@
         <v>20</v>
       </c>
       <c r="B43" s="12">
-        <f>[1]!MF_p_choke_atma(A43,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>26.738014221191406</v>
+        <f>[1]!MF_p_choke_atma(A43,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>26.683761596679688</v>
       </c>
       <c r="C43" s="12">
-        <f>[1]!MF_p_pipe_atma(B43,$C$17,$C$18,$C$4,$B$39,$C$2,A43,$C$13,0,$A$36,10,1)</f>
-        <v>188.23531451365588</v>
+        <f>[1]!MF_p_pipe_atma(B43,$C$17,$C$18,$C$4,$B$39,$C$2,A43,$C$13,0,$E$36,10,1)</f>
+        <v>207.45667671765059</v>
       </c>
       <c r="D43" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A43,$C$13,$C$16)</f>
@@ -3459,12 +3464,12 @@
         <v>40</v>
       </c>
       <c r="B44" s="12">
-        <f>[1]!MF_p_choke_atma(A44,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>29.16986083984375</v>
+        <f>[1]!MF_p_choke_atma(A44,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>28.92071533203125</v>
       </c>
       <c r="C44" s="12">
-        <f>[1]!MF_p_pipe_atma(B44,$C$17,$C$18,$C$4,$B$39,$C$2,A44,$C$13,0,$A$36,10,1)</f>
-        <v>150.48113367633002</v>
+        <f>[1]!MF_p_pipe_atma(B44,$C$17,$C$18,$C$4,$B$39,$C$2,A44,$C$13,0,$E$36,10,1)</f>
+        <v>174.68650945922255</v>
       </c>
       <c r="D44" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A44,$C$13,$C$16)</f>
@@ -3476,12 +3481,12 @@
         <v>63</v>
       </c>
       <c r="B45" s="12">
-        <f>[1]!MF_p_choke_atma(A45,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>35.11126708984375</v>
+        <f>[1]!MF_p_choke_atma(A45,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>34.28924560546875</v>
       </c>
       <c r="C45" s="12">
-        <f>[1]!MF_p_pipe_atma(B45,$C$17,$C$18,$C$4,$B$39,$C$2,A45,$C$13,0,$A$36,10,1)</f>
-        <v>144.81913163175267</v>
+        <f>[1]!MF_p_pipe_atma(B45,$C$17,$C$18,$C$4,$B$39,$C$2,A45,$C$13,0,$E$36,10,1)</f>
+        <v>167.33768886099912</v>
       </c>
       <c r="D45" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A45,$C$13,$C$16)</f>
@@ -3493,12 +3498,12 @@
         <v>80</v>
       </c>
       <c r="B46" s="12">
-        <f>[1]!MF_p_choke_atma(A46,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>43.18548583984375</v>
+        <f>[1]!MF_p_choke_atma(A46,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>41.42083740234375</v>
       </c>
       <c r="C46" s="12">
-        <f>[1]!MF_p_pipe_atma(B46,$C$17,$C$18,$C$4,$B$39,$C$2,A46,$C$13,0,$A$36,10,1)</f>
-        <v>158.19670458647667</v>
+        <f>[1]!MF_p_pipe_atma(B46,$C$17,$C$18,$C$4,$B$39,$C$2,A46,$C$13,0,$E$36,10,1)</f>
+        <v>177.61807213275321</v>
       </c>
       <c r="D46" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A46,$C$13,$C$16)</f>
@@ -3510,12 +3515,12 @@
         <v>100</v>
       </c>
       <c r="B47" s="12">
-        <f>[1]!MF_p_choke_atma(A47,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>53.43060302734375</v>
+        <f>[1]!MF_p_choke_atma(A47,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>51.56597900390625</v>
       </c>
       <c r="C47" s="12">
-        <f>[1]!MF_p_pipe_atma(B47,$C$17,$C$18,$C$4,$B$39,$C$2,A47,$C$13,0,$A$36,10,1)</f>
-        <v>177.47685617690274</v>
+        <f>[1]!MF_p_pipe_atma(B47,$C$17,$C$18,$C$4,$B$39,$C$2,A47,$C$13,0,$E$36,10,1)</f>
+        <v>196.01030040148612</v>
       </c>
       <c r="D47" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A47,$C$13,$C$16)</f>
@@ -3527,12 +3532,12 @@
         <v>120</v>
       </c>
       <c r="B48" s="12">
-        <f>[1]!MF_p_choke_atma(A48,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>63.32659912109375</v>
+        <f>[1]!MF_p_choke_atma(A48,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>61.17791748046875</v>
       </c>
       <c r="C48" s="12">
-        <f>[1]!MF_p_pipe_atma(B48,$C$17,$C$18,$C$4,$B$39,$C$2,A48,$C$13,0,$A$36,10,1)</f>
-        <v>195.93341958765129</v>
+        <f>[1]!MF_p_pipe_atma(B48,$C$17,$C$18,$C$4,$B$39,$C$2,A48,$C$13,0,$E$36,10,1)</f>
+        <v>213.12538215884305</v>
       </c>
       <c r="D48" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A48,$C$13,$C$16)</f>
@@ -3544,12 +3549,12 @@
         <v>140</v>
       </c>
       <c r="B49" s="12">
-        <f>[1]!MF_p_choke_atma(A49,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>72.99725341796875</v>
+        <f>[1]!MF_p_choke_atma(A49,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>70.58514404296875</v>
       </c>
       <c r="C49" s="12">
-        <f>[1]!MF_p_pipe_atma(B49,$C$17,$C$18,$C$4,$B$39,$C$2,A49,$C$13,0,$A$36,10,1)</f>
-        <v>213.59935778489674</v>
+        <f>[1]!MF_p_pipe_atma(B49,$C$17,$C$18,$C$4,$B$39,$C$2,A49,$C$13,0,$E$36,10,1)</f>
+        <v>228.76104088309035</v>
       </c>
       <c r="D49" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A49,$C$13,$C$16)</f>
@@ -3561,12 +3566,12 @@
         <v>160</v>
       </c>
       <c r="B50" s="12">
-        <f>[1]!MF_p_choke_atma(A50,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>82.47271728515625</v>
+        <f>[1]!MF_p_choke_atma(A50,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>79.81463623046875</v>
       </c>
       <c r="C50" s="12">
-        <f>[1]!MF_p_pipe_atma(B50,$C$17,$C$18,$C$4,$B$39,$C$2,A50,$C$13,0,$A$36,10,1)</f>
-        <v>230.40734675718824</v>
+        <f>[1]!MF_p_pipe_atma(B50,$C$17,$C$18,$C$4,$B$39,$C$2,A50,$C$13,0,$E$36,10,1)</f>
+        <v>242.4724790290573</v>
       </c>
       <c r="D50" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A50,$C$13,$C$16)</f>
@@ -3578,12 +3583,12 @@
         <v>180</v>
       </c>
       <c r="B51" s="12">
-        <f>[1]!MF_p_choke_atma(A51,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>91.78948974609375</v>
+        <f>[1]!MF_p_choke_atma(A51,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>88.89971923828125</v>
       </c>
       <c r="C51" s="12">
-        <f>[1]!MF_p_pipe_atma(B51,$C$17,$C$18,$C$4,$B$39,$C$2,A51,$C$13,0,$A$36,10,1)</f>
-        <v>244.64543662573885</v>
+        <f>[1]!MF_p_pipe_atma(B51,$C$17,$C$18,$C$4,$B$39,$C$2,A51,$C$13,0,$E$36,10,1)</f>
+        <v>255.7326352135637</v>
       </c>
       <c r="D51" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A51,$C$13,$C$16)</f>
@@ -3595,12 +3600,12 @@
         <v>200</v>
       </c>
       <c r="B52" s="12">
-        <f>[1]!MF_p_choke_atma(A52,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>100.98089599609375</v>
+        <f>[1]!MF_p_choke_atma(A52,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>97.86737060546875</v>
       </c>
       <c r="C52" s="12">
-        <f>[1]!MF_p_pipe_atma(B52,$C$17,$C$18,$C$4,$B$39,$C$2,A52,$C$13,0,$A$36,10,1)</f>
-        <v>258.14170989483938</v>
+        <f>[1]!MF_p_pipe_atma(B52,$C$17,$C$18,$C$4,$B$39,$C$2,A52,$C$13,0,$E$36,10,1)</f>
+        <v>268.55970806533395</v>
       </c>
       <c r="D52" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A52,$C$13,$C$16)</f>
@@ -3612,12 +3617,12 @@
         <v>220</v>
       </c>
       <c r="B53" s="12">
-        <f>[1]!MF_p_choke_atma(A53,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>110.08026123046875</v>
+        <f>[1]!MF_p_choke_atma(A53,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>106.74774169921875</v>
       </c>
       <c r="C53" s="12">
-        <f>[1]!MF_p_pipe_atma(B53,$C$17,$C$18,$C$4,$B$39,$C$2,A53,$C$13,0,$A$36,10,1)</f>
-        <v>271.23767666441285</v>
+        <f>[1]!MF_p_pipe_atma(B53,$C$17,$C$18,$C$4,$B$39,$C$2,A53,$C$13,0,$E$36,10,1)</f>
+        <v>281.00658912250776</v>
       </c>
       <c r="D53" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A53,$C$13,$C$16)</f>
@@ -3629,12 +3634,12 @@
         <v>240</v>
       </c>
       <c r="B54" s="12">
-        <f>[1]!MF_p_choke_atma(A54,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>119.11773681640625</v>
+        <f>[1]!MF_p_choke_atma(A54,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>115.56781005859375</v>
       </c>
       <c r="C54" s="12">
-        <f>[1]!MF_p_pipe_atma(B54,$C$17,$C$18,$C$4,$B$39,$C$2,A54,$C$13,0,$A$36,10,1)</f>
-        <v>283.99750798802097</v>
+        <f>[1]!MF_p_pipe_atma(B54,$C$17,$C$18,$C$4,$B$39,$C$2,A54,$C$13,0,$E$36,10,1)</f>
+        <v>293.13306600290207</v>
       </c>
       <c r="D54" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A54,$C$13,$C$16)</f>
@@ -3646,12 +3651,12 @@
         <v>260</v>
       </c>
       <c r="B55" s="12">
-        <f>[1]!MF_p_choke_atma(A55,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>128.11871337890625</v>
+        <f>[1]!MF_p_choke_atma(A55,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>124.35296630859375</v>
       </c>
       <c r="C55" s="12">
-        <f>[1]!MF_p_pipe_atma(B55,$C$17,$C$18,$C$4,$B$39,$C$2,A55,$C$13,0,$A$36,10,1)</f>
-        <v>296.48329533128475</v>
+        <f>[1]!MF_p_pipe_atma(B55,$C$17,$C$18,$C$4,$B$39,$C$2,A55,$C$13,0,$E$36,10,1)</f>
+        <v>305.00050370162751</v>
       </c>
       <c r="D55" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A55,$C$13,$C$16)</f>
@@ -3663,12 +3668,12 @@
         <v>280</v>
       </c>
       <c r="B56" s="12">
-        <f>[1]!MF_p_choke_atma(A56,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>137.11175537109375</v>
+        <f>[1]!MF_p_choke_atma(A56,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>133.12384033203125</v>
       </c>
       <c r="C56" s="12">
-        <f>[1]!MF_p_pipe_atma(B56,$C$17,$C$18,$C$4,$B$39,$C$2,A56,$C$13,0,$A$36,10,1)</f>
-        <v>308.76136997770249</v>
+        <f>[1]!MF_p_pipe_atma(B56,$C$17,$C$18,$C$4,$B$39,$C$2,A56,$C$13,0,$E$36,10,1)</f>
+        <v>316.66490595088811</v>
       </c>
       <c r="D56" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A56,$C$13,$C$16)</f>
@@ -3680,12 +3685,12 @@
         <v>300</v>
       </c>
       <c r="B57" s="12">
-        <f>[1]!MF_p_choke_atma(A57,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>146.11431884765625</v>
+        <f>[1]!MF_p_choke_atma(A57,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>141.89947509765625</v>
       </c>
       <c r="C57" s="12">
-        <f>[1]!MF_p_pipe_atma(B57,$C$17,$C$18,$C$4,$B$39,$C$2,A57,$C$13,0,$A$36,10,1)</f>
-        <v>320.88183592472421</v>
+        <f>[1]!MF_p_pipe_atma(B57,$C$17,$C$18,$C$4,$B$39,$C$2,A57,$C$13,0,$E$36,10,1)</f>
+        <v>328.17727834352991</v>
       </c>
       <c r="D57" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A57,$C$13,$C$16)</f>
@@ -3697,12 +3702,12 @@
         <v>320</v>
       </c>
       <c r="B58" s="12">
-        <f>[1]!MF_p_choke_atma(A58,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>155.35650634765625</v>
+        <f>[1]!MF_p_choke_atma(A58,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>150.69415283203125</v>
       </c>
       <c r="C58" s="12">
-        <f>[1]!MF_p_pipe_atma(B58,$C$17,$C$18,$C$4,$B$39,$C$2,A58,$C$13,0,$A$36,10,1)</f>
-        <v>333.15673655094736</v>
+        <f>[1]!MF_p_pipe_atma(B58,$C$17,$C$18,$C$4,$B$39,$C$2,A58,$C$13,0,$E$36,10,1)</f>
+        <v>339.58123174507006</v>
       </c>
       <c r="D58" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A58,$C$13,$C$16)</f>
@@ -3714,12 +3719,12 @@
         <v>340</v>
       </c>
       <c r="B59" s="12">
-        <f>[1]!MF_p_choke_atma(A59,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>165.19219970703125</v>
+        <f>[1]!MF_p_choke_atma(A59,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>160.09344482421875</v>
       </c>
       <c r="C59" s="12">
-        <f>[1]!MF_p_pipe_atma(B59,$C$17,$C$18,$C$4,$B$39,$C$2,A59,$C$13,0,$A$36,10,1)</f>
-        <v>346.03201292688851</v>
+        <f>[1]!MF_p_pipe_atma(B59,$C$17,$C$18,$C$4,$B$39,$C$2,A59,$C$13,0,$E$36,10,1)</f>
+        <v>351.60615361324881</v>
       </c>
       <c r="D59" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A59,$C$13,$C$16)</f>
@@ -3731,12 +3736,12 @@
         <v>360</v>
       </c>
       <c r="B60" s="12">
-        <f>[1]!MF_p_choke_atma(A60,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>175.20562744140625</v>
+        <f>[1]!MF_p_choke_atma(A60,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>169.77044677734375</v>
       </c>
       <c r="C60" s="12">
-        <f>[1]!MF_p_pipe_atma(B60,$C$17,$C$18,$C$4,$B$39,$C$2,A60,$C$13,0,$A$36,10,1)</f>
-        <v>358.99519412514007</v>
+        <f>[1]!MF_p_pipe_atma(B60,$C$17,$C$18,$C$4,$B$39,$C$2,A60,$C$13,0,$E$36,10,1)</f>
+        <v>363.85833276342737</v>
       </c>
       <c r="D60" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A60,$C$13,$C$16)</f>
@@ -3748,12 +3753,12 @@
         <v>380</v>
       </c>
       <c r="B61" s="12">
-        <f>[1]!MF_p_choke_atma(A61,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>185.41424560546875</v>
+        <f>[1]!MF_p_choke_atma(A61,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>179.61566162109375</v>
       </c>
       <c r="C61" s="12">
-        <f>[1]!MF_p_pipe_atma(B61,$C$17,$C$18,$C$4,$B$39,$C$2,A61,$C$13,0,$A$36,10,1)</f>
-        <v>372.07768002695252</v>
+        <f>[1]!MF_p_pipe_atma(B61,$C$17,$C$18,$C$4,$B$39,$C$2,A61,$C$13,0,$E$36,10,1)</f>
+        <v>376.21339768700642</v>
       </c>
       <c r="D61" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A61,$C$13,$C$16)</f>
@@ -3765,12 +3770,12 @@
         <v>400</v>
       </c>
       <c r="B62" s="12">
-        <f>[1]!MF_p_choke_atma(A62,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>195.83233642578125</v>
+        <f>[1]!MF_p_choke_atma(A62,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>189.64337158203125</v>
       </c>
       <c r="C62" s="12">
-        <f>[1]!MF_p_pipe_atma(B62,$C$17,$C$18,$C$4,$B$39,$C$2,A62,$C$13,0,$A$36,10,1)</f>
-        <v>385.30558336935786</v>
+        <f>[1]!MF_p_pipe_atma(B62,$C$17,$C$18,$C$4,$B$39,$C$2,A62,$C$13,0,$E$36,10,1)</f>
+        <v>388.6965694462549</v>
       </c>
       <c r="D62" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A62,$C$13,$C$16)</f>
@@ -3782,12 +3787,12 @@
         <v>420</v>
       </c>
       <c r="B63" s="12">
-        <f>[1]!MF_p_choke_atma(A63,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>207.05816650390625</v>
+        <f>[1]!MF_p_choke_atma(A63,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>199.86468505859375</v>
       </c>
       <c r="C63" s="12">
-        <f>[1]!MF_p_pipe_atma(B63,$C$17,$C$18,$C$4,$B$39,$C$2,A63,$C$13,0,$A$36,10,1)</f>
-        <v>399.37430831817733</v>
+        <f>[1]!MF_p_pipe_atma(B63,$C$17,$C$18,$C$4,$B$39,$C$2,A63,$C$13,0,$E$36,10,1)</f>
+        <v>401.32817970014355</v>
       </c>
       <c r="D63" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A63,$C$13,$C$16)</f>
@@ -3799,12 +3804,12 @@
         <v>440</v>
       </c>
       <c r="B64" s="12">
-        <f>[1]!MF_p_choke_atma(A64,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>218.94256591796875</v>
+        <f>[1]!MF_p_choke_atma(A64,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>211.15240478515625</v>
       </c>
       <c r="C64" s="12">
-        <f>[1]!MF_p_pipe_atma(B64,$C$17,$C$18,$C$4,$B$39,$C$2,A64,$C$13,0,$A$36,10,1)</f>
-        <v>414.09883144721294</v>
+        <f>[1]!MF_p_pipe_atma(B64,$C$17,$C$18,$C$4,$B$39,$C$2,A64,$C$13,0,$E$36,10,1)</f>
+        <v>415.09718967000384</v>
       </c>
       <c r="D64" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A64,$C$13,$C$16)</f>
@@ -3816,33 +3821,33 @@
         <v>460</v>
       </c>
       <c r="B65" s="12">
-        <f>[1]!MF_p_choke_atma(A65,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>231.19512939453125</v>
+        <f>[1]!MF_p_choke_atma(A65,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>223.09869384765625</v>
       </c>
       <c r="C65" s="12">
-        <f>[1]!MF_p_pipe_atma(B65,$C$17,$C$18,$C$4,$B$39,$C$2,A65,$C$13,0,$A$36,10,1)</f>
-        <v>429.14708200788948</v>
+        <f>[1]!MF_p_pipe_atma(B65,$C$17,$C$18,$C$4,$B$39,$C$2,A65,$C$13,0,$E$36,10,1)</f>
+        <v>429.52717023100593</v>
       </c>
       <c r="D65" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A65,$C$13,$C$16)</f>
         <v>0</v>
       </c>
-      <c r="F65" s="46" t="s">
+      <c r="F65" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="G65" s="46"/>
+      <c r="G65" s="48"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>480</v>
       </c>
       <c r="B66" s="12">
-        <f>[1]!MF_p_choke_atma(A66,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>243.83172607421875</v>
+        <f>[1]!MF_p_choke_atma(A66,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>235.41949462890625</v>
       </c>
       <c r="C66" s="12">
-        <f>[1]!MF_p_pipe_atma(B66,$C$17,$C$18,$C$4,$B$39,$C$2,A66,$C$13,0,$A$36,10,1)</f>
-        <v>444.54237168461486</v>
+        <f>[1]!MF_p_pipe_atma(B66,$C$17,$C$18,$C$4,$B$39,$C$2,A66,$C$13,0,$E$36,10,1)</f>
+        <v>444.29977812344134</v>
       </c>
       <c r="D66" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A66,$C$13,$C$16)</f>
@@ -3853,7 +3858,7 @@
       </c>
       <c r="G66" s="40">
         <f>[1]!crv_intersection(A42:A67,C42:C67,A42:A67,D42:D67)</f>
-        <v>55.39142333926624</v>
+        <v>49.619204352990508</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3861,12 +3866,12 @@
         <v>500</v>
       </c>
       <c r="B67" s="12">
-        <f>[1]!MF_p_choke_atma(A67,26,10,$C$8,0,$C$2,$C$17,1.1,$A$36,0)</f>
-        <v>256.86346435546875</v>
+        <f>[1]!MF_p_choke_atma(A67,26,10,$C$8,0,$C$2,$C$17,1,$E$36,0)</f>
+        <v>248.12908935546875</v>
       </c>
       <c r="C67" s="12">
-        <f>[1]!MF_p_pipe_atma(B67,$C$17,$C$18,$C$4,$B$39,$C$2,A67,$C$13,0,$A$36,10,1)</f>
-        <v>460.30198660023473</v>
+        <f>[1]!MF_p_pipe_atma(B67,$C$17,$C$18,$C$4,$B$39,$C$2,A67,$C$13,0,$E$36,10,1)</f>
+        <v>459.43533503427852</v>
       </c>
       <c r="D67" s="19">
         <f>[1]!IPR_pwf_atma($C$25,$C$9,A67,$C$13,$C$16)</f>
@@ -3885,8 +3890,8 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="array" ref="A71:M96">[1]!MF_p_pipe_atma($C$7,$C$17,$C$18,$C$4,$B$39,$C$2,$C$12,$C$13,0,$A$36,10,1)</f>
-        <v>144.37710271234548</v>
+        <f t="array" ref="A71:M96">[1]!MF_p_pipe_atma($C$7,$C$17,$C$18,$C$4,$B$39,$C$2,$C$12,$C$13,0,$E$36,10,1)</f>
+        <v>169.37190246458792</v>
       </c>
       <c r="B71" s="16">
         <v>110</v>
@@ -3898,7 +3903,7 @@
         <v>20</v>
       </c>
       <c r="E71">
-        <v>144.37710271234548</v>
+        <v>169.37190246458792</v>
       </c>
       <c r="F71">
         <v>110</v>
@@ -3910,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="I71">
-        <v>21525.934000000001</v>
+        <v>17091.591596000002</v>
       </c>
       <c r="J71" t="e">
         <v>#N/A</v>
@@ -4024,7 +4029,7 @@
         <v>20</v>
       </c>
       <c r="F74">
-        <v>0.27128976735129695</v>
+        <v>0.30657078233893609</v>
       </c>
       <c r="G74" s="43">
         <v>103</v>
@@ -4059,13 +4064,13 @@
         <v>185.21733138428738</v>
       </c>
       <c r="D75">
-        <v>38.571950285202284</v>
+        <v>39.164780186546551</v>
       </c>
       <c r="E75">
         <v>24.736842105263158</v>
       </c>
       <c r="F75">
-        <v>0.28435912971624966</v>
+        <v>0.32472779682283981</v>
       </c>
       <c r="G75" s="43">
         <v>103</v>
@@ -4100,13 +4105,13 @@
         <v>370.43466276857475</v>
       </c>
       <c r="D76">
-        <v>42.357364306603834</v>
+        <v>43.621459423054894</v>
       </c>
       <c r="E76">
         <v>29.473684210526315</v>
       </c>
       <c r="F76">
-        <v>0.29770156321179447</v>
+        <v>0.343256913883631</v>
       </c>
       <c r="G76" s="43">
         <v>103</v>
@@ -4141,13 +4146,13 @@
         <v>555.65199415286202</v>
       </c>
       <c r="D77">
-        <v>46.356998217803657</v>
+        <v>48.369346700758179</v>
       </c>
       <c r="E77">
         <v>34.210526315789473</v>
       </c>
       <c r="F77">
-        <v>0.31126001698627409</v>
+        <v>0.36203347397482472</v>
       </c>
       <c r="G77" s="43">
         <v>103</v>
@@ -4182,13 +4187,13 @@
         <v>740.86932553714951</v>
       </c>
       <c r="D78">
-        <v>50.570253879483175</v>
+        <v>53.405147016038612</v>
       </c>
       <c r="E78">
         <v>38.94736842105263</v>
       </c>
       <c r="F78">
-        <v>0.32497253109876151</v>
+        <v>0.38092516618227767</v>
       </c>
       <c r="G78" s="43">
         <v>103</v>
@@ -4223,13 +4228,13 @@
         <v>926.08665692143688</v>
       </c>
       <c r="D79">
-        <v>54.995203616674395</v>
+        <v>58.801022206597381</v>
       </c>
       <c r="E79">
         <v>43.684210526315788</v>
       </c>
       <c r="F79">
-        <v>0.33877379766952026</v>
+        <v>0.42107484721007016</v>
       </c>
       <c r="G79" s="43">
         <v>103</v>
@@ -4264,13 +4269,13 @@
         <v>1111.303988305724</v>
       </c>
       <c r="D80">
-        <v>59.628635841869333</v>
+        <v>65.179318476303294</v>
       </c>
       <c r="E80">
         <v>48.421052631578945</v>
       </c>
       <c r="F80">
-        <v>0.35259688618294266</v>
+        <v>0.48982454715491625</v>
       </c>
       <c r="G80" s="43">
         <v>103</v>
@@ -4305,13 +4310,13 @@
         <v>1296.5213196900115</v>
       </c>
       <c r="D81">
-        <v>64.466125778658267</v>
+        <v>72.031758104198431</v>
       </c>
       <c r="E81">
         <v>53.157894736842103</v>
       </c>
       <c r="F81">
-        <v>0.36637506340007936</v>
+        <v>0.51046512104930897</v>
       </c>
       <c r="G81" s="43">
         <v>103</v>
@@ -4346,13 +4351,13 @@
         <v>1481.7386510742988</v>
       </c>
       <c r="D82">
-        <v>69.5083259439496</v>
+        <v>79.167393333892704</v>
       </c>
       <c r="E82">
         <v>57.89473684210526</v>
       </c>
       <c r="F82">
-        <v>0.3800378609365514</v>
+        <v>0.53020014740593913</v>
       </c>
       <c r="G82" s="43">
         <v>103</v>
@@ -4387,13 +4392,13 @@
         <v>1666.9559824585863</v>
       </c>
       <c r="D83">
-        <v>74.743427443594854</v>
+        <v>86.554348661625369</v>
       </c>
       <c r="E83">
         <v>62.631578947368418</v>
       </c>
       <c r="F83">
-        <v>0.39352428151818503</v>
+        <v>0.54895370252689568</v>
       </c>
       <c r="G83" s="43">
         <v>103</v>
@@ -4428,13 +4433,13 @@
         <v>1852.1733138428738</v>
       </c>
       <c r="D84">
-        <v>80.527329815056646</v>
+        <v>94.166444791714113</v>
       </c>
       <c r="E84">
         <v>67.368421052631575</v>
       </c>
       <c r="F84">
-        <v>0.47477856480390351</v>
+        <v>0.56667771852106708</v>
       </c>
       <c r="G84" s="43">
         <v>103</v>
@@ -4469,13 +4474,13 @@
         <v>2037.3906452271608</v>
       </c>
       <c r="D85">
-        <v>87.016684515699566</v>
+        <v>101.98021653397306</v>
       </c>
       <c r="E85">
         <v>72.10526315789474</v>
       </c>
       <c r="F85">
-        <v>0.48933763463828489</v>
+        <v>0.58334912478588719</v>
       </c>
       <c r="G85" s="43">
         <v>103</v>
@@ -4510,13 +4515,13 @@
         <v>2222.6079766114481</v>
       </c>
       <c r="D86">
-        <v>93.689545274793758</v>
+        <v>109.97318820652242</v>
       </c>
       <c r="E86">
         <v>76.84210526315789</v>
       </c>
       <c r="F86">
-        <v>0.50331330863362089</v>
+        <v>0.59897179338976947</v>
       </c>
       <c r="G86" s="43">
         <v>103</v>
@@ -4551,13 +4556,13 @@
         <v>2407.8253079957358</v>
       </c>
       <c r="D87">
-        <v>100.53129621849205</v>
+        <v>118.12420374966413</v>
       </c>
       <c r="E87">
         <v>81.578947368421055</v>
       </c>
       <c r="F87">
-        <v>0.51667796630432572</v>
+        <v>0.6135707709245054</v>
       </c>
       <c r="G87" s="43">
         <v>103</v>
@@ -4592,13 +4597,13 @@
         <v>2593.042639380023</v>
       </c>
       <c r="D88">
-        <v>107.52759581469624</v>
+        <v>126.41363707443473</v>
       </c>
       <c r="E88">
         <v>86.315789473684205</v>
       </c>
       <c r="F88">
-        <v>0.52941727940726635</v>
+        <v>0.62718651531759917</v>
       </c>
       <c r="G88" s="43">
         <v>103</v>
@@ -4633,13 +4638,13 @@
         <v>2778.2599707643108</v>
       </c>
       <c r="D89">
-        <v>114.66765623446314</v>
+        <v>134.82600590652061</v>
       </c>
       <c r="E89">
         <v>91.05263157894737</v>
       </c>
       <c r="F89">
-        <v>0.54151323171652621</v>
+        <v>0.6398483805380083</v>
       </c>
       <c r="G89" s="43">
         <v>103</v>
@@ -4674,13 +4679,13 @@
         <v>2963.4773021485976</v>
       </c>
       <c r="D90">
-        <v>121.93626948114532</v>
+        <v>143.34308500058805</v>
       </c>
       <c r="E90">
         <v>95.78947368421052</v>
       </c>
       <c r="F90">
-        <v>0.55297882995255665</v>
+        <v>0.65162439790209226</v>
       </c>
       <c r="G90" s="43">
         <v>103</v>
@@ -4715,13 +4720,13 @@
         <v>3148.6946335328853</v>
       </c>
       <c r="D91">
-        <v>129.31878257159894</v>
+        <v>151.94847312638259</v>
       </c>
       <c r="E91">
         <v>100.52631578947368</v>
       </c>
       <c r="F91">
-        <v>0.56383888429721873</v>
+        <v>0.66258811286887065</v>
       </c>
       <c r="G91" s="43">
         <v>103</v>
@@ -4756,13 +4761,13 @@
         <v>3333.9119649171726</v>
       </c>
       <c r="D92">
-        <v>136.80356597972343</v>
+        <v>160.62919217363347</v>
       </c>
       <c r="E92">
         <v>105.26315789473685</v>
       </c>
       <c r="F92">
-        <v>0.57411337672051099</v>
+        <v>0.67279773633844386</v>
       </c>
       <c r="G92" s="43">
         <v>103</v>
@@ -4797,13 +4802,13 @@
         <v>3519.1292963014598</v>
       </c>
       <c r="D93">
-        <v>144.37710271234548</v>
+        <v>169.37190246458792</v>
       </c>
       <c r="E93">
         <v>110</v>
       </c>
       <c r="F93">
-        <v>0.58384372332889323</v>
+        <v>0.68233085069725408</v>
       </c>
       <c r="G93" s="43">
         <v>103</v>
